--- a/NhapHang.xlsx
+++ b/NhapHang.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javvaa\DuAn1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42721F1A-91CE-4A05-99E7-BCF2C8539062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF84A57-F3CE-49AF-97E2-9D76F7DB253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2025" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -186,7 +186,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -773,7 +773,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
